--- a/raw_data/umd/2023/RL_2023-07-12_SBay.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-12_SBay.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_12_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC178160-C453-3842-A9DB-03B51FF900E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DB0E1D-5DDF-064E-87CA-E9560C1C7B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{1E8274F9-07CD-3841-A68B-911B0FC60CE0}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = SBay</t>
-  </si>
-  <si>
-    <t>Location ID = 912484ce-4543-4fe9-a67d-b35027c3a772</t>
-  </si>
-  <si>
-    <t>Latitude = 46.8611167 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.11 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-12 10:02:53</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:01:04</t>
-  </si>
-  <si>
-    <t>Readings = 65</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date Time</t>
   </si>
@@ -120,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -627,7 +582,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="11" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1008,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DDB744-BC3D-6440-B844-3E8D9BD3D7F3}">
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1034,193 +989,1106 @@
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45119.418668981481</v>
+      </c>
+      <c r="B2" s="3">
+        <v>784.51570000000004</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4.3942480000000002</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5.9778459999999999E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99804899999999996</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3.8870720000000002E-5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.49966650000000001</v>
+      </c>
+      <c r="J2" s="3">
+        <v>20.770050000000001</v>
+      </c>
+      <c r="K2" s="3">
+        <v>6.5892980000000004E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.78015889999999999</v>
+      </c>
+      <c r="M2" s="3">
+        <v>4.632737E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.70970789999999995</v>
+      </c>
+      <c r="O2" s="3">
+        <v>992.3306</v>
+      </c>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45119.418680555558</v>
+      </c>
+      <c r="B3" s="3">
+        <v>799.26689999999996</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.3941879999999998</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5.9781220000000003E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99804959999999998</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.8872909999999999E-5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.49830479999999999</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20.767050000000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>6.5903799999999998E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.78018350000000003</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4.6334979999999998E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.71010419999999996</v>
+      </c>
+      <c r="O3" s="3">
+        <v>992.33320000000003</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45119.418692129628</v>
+      </c>
+      <c r="B4" s="3">
+        <v>814.0181</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3941280000000003</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5.9783969999999999E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.9980502</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.8875100000000003E-5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.49694300000000002</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20.764060000000001</v>
+      </c>
+      <c r="K4" s="3">
+        <v>6.5914619999999993E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.78020809999999996</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4.6342590000000003E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.71050049999999998</v>
+      </c>
+      <c r="O4" s="3">
+        <v>992.33569999999997</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45119.418703703705</v>
+      </c>
+      <c r="B5" s="3">
+        <v>448.33850000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.3534980000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.9842880000000001E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99805670000000002</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3.8899809999999997E-5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.53717879999999996</v>
+      </c>
+      <c r="J5" s="3">
+        <v>20.74578</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.2355839999999997E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.70273830000000004</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2.2748419999999998E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.70305649999999997</v>
+      </c>
+      <c r="O5" s="3">
+        <v>992.27800000000002</v>
+      </c>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45119.418715277781</v>
+      </c>
+      <c r="B6" s="3">
+        <v>434.20030000000003</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.3508190000000004</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.984656E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99805719999999998</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.890179E-5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.53861650000000005</v>
+      </c>
+      <c r="J6" s="3">
+        <v>20.743780000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.9947999999999999E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.69718060000000004</v>
+      </c>
+      <c r="M6" s="3">
+        <v>2.1055540000000001E-2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.70283390000000001</v>
+      </c>
+      <c r="O6" s="3">
+        <v>992.27620000000002</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45119.418726851851</v>
+      </c>
+      <c r="B7" s="3">
+        <v>420.06209999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.3481399999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.9850239999999999E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99805770000000005</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3.8903770000000003E-5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.54005429999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>20.741779999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.7540160000000001E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.69162290000000004</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.936266E-2</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.7026114</v>
+      </c>
+      <c r="O7" s="3">
+        <v>992.27449999999999</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45119.418738425928</v>
+      </c>
+      <c r="B8" s="3">
+        <v>405.9239</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.3454600000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5.9853919999999998E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99805829999999995</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3.890576E-5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.54149210000000003</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20.73978</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.513232E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.68606520000000004</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.766978E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.70238880000000004</v>
+      </c>
+      <c r="O8" s="3">
+        <v>992.27279999999996</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45119.418749999997</v>
+      </c>
+      <c r="B9" s="3">
+        <v>559.48910000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.3206629999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.9882770000000002E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99806870000000003</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3.8945510000000002E-5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.43480449999999998</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20.686219999999999</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.1374717</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.9433513</v>
+      </c>
+      <c r="M9" s="3">
+        <v>9.6652210000000002E-2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.694245</v>
+      </c>
+      <c r="O9" s="3">
+        <v>992.31539999999995</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45119.418761574074</v>
+      </c>
+      <c r="B10" s="3">
+        <v>559.26199999999994</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.3185159999999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5.9885529999999999E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99806930000000005</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.8948059999999998E-5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.4303459</v>
+      </c>
+      <c r="J10" s="3">
+        <v>20.683109999999999</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.142322</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.95444609999999996</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.10006230000000001</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.69367990000000002</v>
+      </c>
+      <c r="O10" s="3">
+        <v>992.31629999999996</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45119.418773148151</v>
+      </c>
+      <c r="B11" s="3">
+        <v>559.03499999999997</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.3163689999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5.9888289999999997E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99807000000000001</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3.895061E-5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.42588730000000002</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20.68</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.14717230000000001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.96554099999999998</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.1034725</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.69311469999999997</v>
+      </c>
+      <c r="O11" s="3">
+        <v>992.31730000000005</v>
+      </c>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45119.41878472222</v>
+      </c>
+      <c r="B12" s="3">
+        <v>985.70479999999998</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.3020839999999998</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5.9953199999999998E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99807570000000001</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3.8972050000000002E-5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.50779160000000001</v>
+      </c>
+      <c r="J12" s="3">
+        <v>20.654160000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.30601610000000001</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.333766</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.2151507</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.69322669999999997</v>
+      </c>
+      <c r="O12" s="3">
+        <v>992.33590000000004</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45119.418796296297</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1010.082</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.3007949999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5.9957120000000003E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99807619999999997</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3.8974000000000003E-5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.50964120000000002</v>
+      </c>
+      <c r="J13" s="3">
+        <v>20.651689999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.31629689999999999</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.3575330000000001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.22237879999999999</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.69305660000000002</v>
+      </c>
+      <c r="O13" s="3">
+        <v>992.33759999999995</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45119.418807870374</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1034.4590000000001</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4.299506</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5.996104E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99807670000000004</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3.8975949999999997E-5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.51149089999999997</v>
+      </c>
+      <c r="J14" s="3">
+        <v>20.64922</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.32657770000000003</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.3812990000000001</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.22960700000000001</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.69288649999999996</v>
+      </c>
+      <c r="O14" s="3">
+        <v>992.33950000000004</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45119.418819444443</v>
+      </c>
+      <c r="B15" s="3">
+        <v>546.09410000000003</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.5721480000000003</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6.000159E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99808799999999998</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3.9019269999999999E-5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.4346199</v>
+      </c>
+      <c r="J15" s="3">
+        <v>20.590969999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.2805340000000001</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3.5768049999999998</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.90030500000000002</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O15" s="3">
+        <v>992.34780000000001</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45119.41883101852</v>
+      </c>
+      <c r="B16" s="3">
+        <v>530.05179999999996</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4.5857070000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6.0005049999999997E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99808870000000005</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3.9021950000000003E-5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.43235069999999998</v>
+      </c>
+      <c r="J16" s="3">
+        <v>20.587420000000002</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.33249</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3.696434</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.93683360000000004</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O16" s="3">
+        <v>992.34860000000003</v>
+      </c>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45119.418842592589</v>
+      </c>
+      <c r="B17" s="3">
+        <v>514.00959999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4.5992670000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6.0008499999999999E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99808940000000002</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3.9024640000000002E-5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.43008150000000001</v>
+      </c>
+      <c r="J17" s="3">
+        <v>20.583870000000001</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.3844460000000001</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3.8160630000000002</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.97336219999999996</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O17" s="3">
+        <v>992.34939999999995</v>
+      </c>
+      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45119.418854166666</v>
+      </c>
+      <c r="B18" s="3">
+        <v>13628.1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.0508480000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6.0067919999999997E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99809499999999995</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3.9046320000000001E-5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.45087529999999998</v>
+      </c>
+      <c r="J18" s="3">
+        <v>20.56184</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.80715</v>
+      </c>
+      <c r="L18" s="3">
+        <v>4.7958319999999999</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.270553</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O18" s="3">
+        <v>992.34939999999995</v>
+      </c>
+      <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45119.418865740743</v>
+      </c>
+      <c r="B19" s="3">
+        <v>14294.16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.0798620000000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6.0071859999999998E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99809559999999997</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3.9048370000000002E-5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.45031520000000003</v>
+      </c>
+      <c r="J19" s="3">
+        <v>20.559460000000001</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.849097</v>
+      </c>
+      <c r="L19" s="3">
+        <v>4.8927300000000002</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1.3000449999999999</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O19" s="3">
+        <v>992.34950000000003</v>
+      </c>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45119.418877314813</v>
+      </c>
+      <c r="B20" s="3">
+        <v>14960.22</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5.1088760000000004</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6.0075799999999999E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99809610000000004</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3.9050410000000002E-5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.44975520000000002</v>
+      </c>
+      <c r="J20" s="3">
+        <v>20.55707</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.8910450000000001</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4.9896279999999997</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1.329537</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O20" s="3">
+        <v>992.34969999999998</v>
+      </c>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45119.418888888889</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1777.1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5.193956</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6.0112449999999998E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99810209999999999</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3.9073740000000001E-5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.55113610000000002</v>
+      </c>
+      <c r="J21" s="3">
+        <v>20.502559999999999</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2.2674110000000001</v>
+      </c>
+      <c r="L21" s="3">
+        <v>6.8321649999999998</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1.8909819999999999</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O21" s="3">
+        <v>992.33249999999998</v>
+      </c>
+      <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45119.418900462966</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1356.2249999999999</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.2079709999999997</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6.011565E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.99810259999999995</v>
+      </c>
+      <c r="H22" s="5">
+        <v>3.9075439999999998E-5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.55693999999999999</v>
+      </c>
+      <c r="J22" s="3">
+        <v>20.499199999999998</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2.2963119999999999</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6.9504219999999997</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1.9269879999999999</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="O22" s="3">
+        <v>992.33150000000001</v>
+      </c>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45119.418668981481</v>
+        <v>45119.418912037036</v>
       </c>
       <c r="B23" s="3">
-        <v>784.51570000000004</v>
+        <v>935.34950000000003</v>
       </c>
       <c r="C23" s="3">
-        <v>4.3942480000000002</v>
+        <v>5.2219870000000004</v>
       </c>
       <c r="D23" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E23" s="3">
-        <v>5.9778459999999999E-2</v>
+        <v>6.0118850000000001E-2</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99804899999999996</v>
+        <v>0.99810299999999996</v>
       </c>
       <c r="H23" s="5">
-        <v>3.8870720000000002E-5</v>
+        <v>3.9077130000000001E-5</v>
       </c>
       <c r="I23" s="3">
-        <v>0.49966650000000001</v>
+        <v>0.56274389999999996</v>
       </c>
       <c r="J23" s="3">
-        <v>20.770050000000001</v>
+        <v>20.495850000000001</v>
       </c>
       <c r="K23" s="3">
-        <v>6.5892980000000004E-2</v>
+        <v>2.3252120000000001</v>
       </c>
       <c r="L23" s="3">
-        <v>0.78015889999999999</v>
+        <v>7.0686780000000002</v>
       </c>
       <c r="M23" s="3">
-        <v>4.632737E-2</v>
+        <v>1.9629939999999999</v>
       </c>
       <c r="N23" s="3">
-        <v>0.70970789999999995</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="O23" s="3">
         <v>992.3306</v>
@@ -1229,3075 +2097,2067 @@
     </row>
     <row r="24" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45119.418680555558</v>
+        <v>45119.418923611112</v>
       </c>
       <c r="B24" s="3">
-        <v>799.26689999999996</v>
+        <v>811.60379999999998</v>
       </c>
       <c r="C24" s="3">
-        <v>4.3941879999999998</v>
+        <v>5.1280390000000002</v>
       </c>
       <c r="D24" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E24" s="3">
-        <v>5.9781220000000003E-2</v>
+        <v>6.0180079999999997E-2</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99804959999999998</v>
+        <v>0.99811340000000004</v>
       </c>
       <c r="H24" s="5">
-        <v>3.8872909999999999E-5</v>
+        <v>3.9117050000000002E-5</v>
       </c>
       <c r="I24" s="3">
-        <v>0.49830479999999999</v>
+        <v>0.55029090000000003</v>
       </c>
       <c r="J24" s="3">
-        <v>20.767050000000001</v>
+        <v>20.466550000000002</v>
       </c>
       <c r="K24" s="3">
-        <v>6.5903799999999998E-2</v>
+        <v>3.2764359999999999</v>
       </c>
       <c r="L24" s="3">
-        <v>0.78018350000000003</v>
+        <v>8.3138939999999995</v>
       </c>
       <c r="M24" s="3">
-        <v>4.6334979999999998E-2</v>
+        <v>2.3424330000000002</v>
       </c>
       <c r="N24" s="3">
-        <v>0.71010419999999996</v>
+        <v>0.68531120000000001</v>
       </c>
       <c r="O24" s="3">
-        <v>992.33320000000003</v>
+        <v>992.31320000000005</v>
       </c>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45119.418692129628</v>
+        <v>45119.418935185182</v>
       </c>
       <c r="B25" s="3">
-        <v>814.0181</v>
+        <v>516.26319999999998</v>
       </c>
       <c r="C25" s="3">
-        <v>4.3941280000000003</v>
+        <v>5.1249799999999999</v>
       </c>
       <c r="D25" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E25" s="3">
-        <v>5.9783969999999999E-2</v>
+        <v>6.0184090000000003E-2</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.9980502</v>
+        <v>0.99811399999999995</v>
       </c>
       <c r="H25" s="5">
-        <v>3.8875100000000003E-5</v>
+        <v>3.9119660000000001E-5</v>
       </c>
       <c r="I25" s="3">
-        <v>0.49694300000000002</v>
+        <v>0.55183519999999997</v>
       </c>
       <c r="J25" s="3">
-        <v>20.764060000000001</v>
+        <v>20.463819999999998</v>
       </c>
       <c r="K25" s="3">
-        <v>6.5914619999999993E-2</v>
+        <v>3.3346840000000002</v>
       </c>
       <c r="L25" s="3">
-        <v>0.78020809999999996</v>
+        <v>8.4197389999999999</v>
       </c>
       <c r="M25" s="3">
-        <v>4.6342590000000003E-2</v>
+        <v>2.3746860000000001</v>
       </c>
       <c r="N25" s="3">
-        <v>0.71050049999999998</v>
+        <v>0.68490790000000001</v>
       </c>
       <c r="O25" s="3">
-        <v>992.33569999999997</v>
+        <v>992.31200000000001</v>
       </c>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45119.418703703705</v>
+        <v>45119.418946759259</v>
       </c>
       <c r="B26" s="3">
-        <v>448.33850000000001</v>
+        <v>220.92250000000001</v>
       </c>
       <c r="C26" s="3">
-        <v>4.3534980000000001</v>
+        <v>5.1219210000000004</v>
       </c>
       <c r="D26" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E26" s="3">
-        <v>5.9842880000000001E-2</v>
+        <v>6.0188110000000003E-2</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99805670000000002</v>
+        <v>0.99811470000000002</v>
       </c>
       <c r="H26" s="5">
-        <v>3.8899809999999997E-5</v>
+        <v>3.9122270000000001E-5</v>
       </c>
       <c r="I26" s="3">
-        <v>0.53717879999999996</v>
+        <v>0.55337970000000003</v>
       </c>
       <c r="J26" s="3">
-        <v>20.74578</v>
+        <v>20.461079999999999</v>
       </c>
       <c r="K26" s="3">
-        <v>3.2355839999999997E-2</v>
+        <v>3.3929320000000001</v>
       </c>
       <c r="L26" s="3">
-        <v>0.70273830000000004</v>
+        <v>8.5255829999999992</v>
       </c>
       <c r="M26" s="3">
-        <v>2.2748419999999998E-2</v>
+        <v>2.4069389999999999</v>
       </c>
       <c r="N26" s="3">
-        <v>0.70305649999999997</v>
+        <v>0.68450449999999996</v>
       </c>
       <c r="O26" s="3">
-        <v>992.27800000000002</v>
+        <v>992.3107</v>
       </c>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45119.418715277781</v>
+        <v>45119.418958333335</v>
       </c>
       <c r="B27" s="3">
-        <v>434.20030000000003</v>
+        <v>50950.7</v>
       </c>
       <c r="C27" s="3">
-        <v>4.3508190000000004</v>
+        <v>5.2871269999999999</v>
       </c>
       <c r="D27" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E27" s="3">
-        <v>5.984656E-2</v>
+        <v>6.0222249999999998E-2</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99805719999999998</v>
+        <v>0.99812040000000002</v>
       </c>
       <c r="H27" s="5">
-        <v>3.890179E-5</v>
+        <v>3.9144460000000002E-5</v>
       </c>
       <c r="I27" s="3">
-        <v>0.53861650000000005</v>
+        <v>0.56860630000000001</v>
       </c>
       <c r="J27" s="3">
-        <v>20.743780000000001</v>
+        <v>20.4148</v>
       </c>
       <c r="K27" s="3">
-        <v>2.9947999999999999E-2</v>
+        <v>3.8146339999999999</v>
       </c>
       <c r="L27" s="3">
-        <v>0.69718060000000004</v>
+        <v>9.4679780000000004</v>
       </c>
       <c r="M27" s="3">
-        <v>2.1055540000000001E-2</v>
+        <v>2.694401</v>
       </c>
       <c r="N27" s="3">
-        <v>0.70283390000000001</v>
+        <v>0.69196769999999996</v>
       </c>
       <c r="O27" s="3">
-        <v>992.27620000000002</v>
+        <v>992.31889999999999</v>
       </c>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45119.418726851851</v>
+        <v>45119.418969907405</v>
       </c>
       <c r="B28" s="3">
-        <v>420.06209999999999</v>
+        <v>53630.19</v>
       </c>
       <c r="C28" s="3">
-        <v>4.3481399999999999</v>
+        <v>5.2939309999999997</v>
       </c>
       <c r="D28" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E28" s="3">
-        <v>5.9850239999999999E-2</v>
+        <v>6.0225359999999999E-2</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99805770000000005</v>
+        <v>0.99812089999999998</v>
       </c>
       <c r="H28" s="5">
-        <v>3.8903770000000003E-5</v>
+        <v>3.9146490000000001E-5</v>
       </c>
       <c r="I28" s="3">
-        <v>0.54005429999999999</v>
+        <v>0.56915530000000003</v>
       </c>
       <c r="J28" s="3">
-        <v>20.741779999999999</v>
+        <v>20.411729999999999</v>
       </c>
       <c r="K28" s="3">
-        <v>2.7540160000000001E-2</v>
+        <v>3.857218</v>
       </c>
       <c r="L28" s="3">
-        <v>0.69162290000000004</v>
+        <v>9.5444899999999997</v>
       </c>
       <c r="M28" s="3">
-        <v>1.936266E-2</v>
+        <v>2.7177310000000001</v>
       </c>
       <c r="N28" s="3">
-        <v>0.7026114</v>
+        <v>0.69219869999999994</v>
       </c>
       <c r="O28" s="3">
-        <v>992.27449999999999</v>
+        <v>992.31899999999996</v>
       </c>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45119.418738425928</v>
+        <v>45119.418981481482</v>
       </c>
       <c r="B29" s="3">
-        <v>405.9239</v>
+        <v>56309.69</v>
       </c>
       <c r="C29" s="3">
-        <v>4.3454600000000001</v>
+        <v>5.3007359999999997</v>
       </c>
       <c r="D29" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E29" s="3">
-        <v>5.9853919999999998E-2</v>
+        <v>6.0228480000000001E-2</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99805829999999995</v>
+        <v>0.99812140000000005</v>
       </c>
       <c r="H29" s="5">
-        <v>3.890576E-5</v>
+        <v>3.914851E-5</v>
       </c>
       <c r="I29" s="3">
-        <v>0.54149210000000003</v>
+        <v>0.56970430000000005</v>
       </c>
       <c r="J29" s="3">
-        <v>20.73978</v>
+        <v>20.408650000000002</v>
       </c>
       <c r="K29" s="3">
-        <v>2.513232E-2</v>
+        <v>3.8998020000000002</v>
       </c>
       <c r="L29" s="3">
-        <v>0.68606520000000004</v>
+        <v>9.6210009999999997</v>
       </c>
       <c r="M29" s="3">
-        <v>1.766978E-2</v>
+        <v>2.7410610000000002</v>
       </c>
       <c r="N29" s="3">
-        <v>0.70238880000000004</v>
+        <v>0.69242970000000004</v>
       </c>
       <c r="O29" s="3">
-        <v>992.27279999999996</v>
+        <v>992.31899999999996</v>
       </c>
       <c r="P29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45119.418749999997</v>
+        <v>45119.418993055559</v>
       </c>
       <c r="B30" s="3">
-        <v>559.48910000000001</v>
+        <v>58989.19</v>
       </c>
       <c r="C30" s="3">
-        <v>4.3206629999999997</v>
+        <v>5.3075409999999996</v>
       </c>
       <c r="D30" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E30" s="3">
-        <v>5.9882770000000002E-2</v>
+        <v>6.0231590000000002E-2</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99806870000000003</v>
+        <v>0.99812199999999995</v>
       </c>
       <c r="H30" s="5">
-        <v>3.8945510000000002E-5</v>
+        <v>3.9150529999999999E-5</v>
       </c>
       <c r="I30" s="3">
-        <v>0.43480449999999998</v>
+        <v>0.57025329999999996</v>
       </c>
       <c r="J30" s="3">
-        <v>20.686219999999999</v>
+        <v>20.40558</v>
       </c>
       <c r="K30" s="3">
-        <v>0.1374717</v>
+        <v>3.9423859999999999</v>
       </c>
       <c r="L30" s="3">
-        <v>0.9433513</v>
+        <v>9.6975119999999997</v>
       </c>
       <c r="M30" s="3">
-        <v>9.6652210000000002E-2</v>
+        <v>2.7643900000000001</v>
       </c>
       <c r="N30" s="3">
-        <v>0.694245</v>
+        <v>0.69266070000000002</v>
       </c>
       <c r="O30" s="3">
-        <v>992.31539999999995</v>
+        <v>992.31910000000005</v>
       </c>
       <c r="P30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45119.418761574074</v>
+        <v>45119.419004629628</v>
       </c>
       <c r="B31" s="3">
-        <v>559.26199999999994</v>
+        <v>64441.89</v>
       </c>
       <c r="C31" s="3">
-        <v>4.3185159999999998</v>
+        <v>5.1998309999999996</v>
       </c>
       <c r="D31" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E31" s="3">
-        <v>5.9885529999999999E-2</v>
+        <v>6.0298320000000002E-2</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99806930000000005</v>
+        <v>0.9981331</v>
       </c>
       <c r="H31" s="5">
-        <v>3.8948059999999998E-5</v>
+        <v>3.9193909999999998E-5</v>
       </c>
       <c r="I31" s="3">
-        <v>0.4303459</v>
+        <v>0.53687300000000004</v>
       </c>
       <c r="J31" s="3">
-        <v>20.683109999999999</v>
+        <v>20.374860000000002</v>
       </c>
       <c r="K31" s="3">
-        <v>0.142322</v>
+        <v>5.1651949999999998</v>
       </c>
       <c r="L31" s="3">
-        <v>0.95444609999999996</v>
+        <v>12.543060000000001</v>
       </c>
       <c r="M31" s="3">
-        <v>0.10006230000000001</v>
+        <v>3.6314929999999999</v>
       </c>
       <c r="N31" s="3">
-        <v>0.69367990000000002</v>
+        <v>0.69281740000000003</v>
       </c>
       <c r="O31" s="3">
-        <v>992.31629999999996</v>
+        <v>992.36360000000002</v>
       </c>
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45119.418773148151</v>
+        <v>45119.419016203705</v>
       </c>
       <c r="B32" s="3">
-        <v>559.03499999999997</v>
+        <v>65872.91</v>
       </c>
       <c r="C32" s="3">
-        <v>4.3163689999999999</v>
+        <v>5.1981840000000004</v>
       </c>
       <c r="D32" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E32" s="3">
-        <v>5.9888289999999997E-2</v>
+        <v>6.0302479999999999E-2</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99807000000000001</v>
+        <v>0.99813379999999996</v>
       </c>
       <c r="H32" s="5">
-        <v>3.895061E-5</v>
+        <v>3.9196609999999997E-5</v>
       </c>
       <c r="I32" s="3">
-        <v>0.42588730000000002</v>
+        <v>0.53556239999999999</v>
       </c>
       <c r="J32" s="3">
-        <v>20.68</v>
+        <v>20.372240000000001</v>
       </c>
       <c r="K32" s="3">
-        <v>0.14717230000000001</v>
+        <v>5.2366200000000003</v>
       </c>
       <c r="L32" s="3">
-        <v>0.96554099999999998</v>
+        <v>12.707839999999999</v>
       </c>
       <c r="M32" s="3">
-        <v>0.1034725</v>
+        <v>3.681711</v>
       </c>
       <c r="N32" s="3">
-        <v>0.69311469999999997</v>
+        <v>0.69299049999999995</v>
       </c>
       <c r="O32" s="3">
-        <v>992.31730000000005</v>
+        <v>992.36599999999999</v>
       </c>
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45119.41878472222</v>
+        <v>45119.419027777774</v>
       </c>
       <c r="B33" s="3">
-        <v>985.70479999999998</v>
+        <v>67303.92</v>
       </c>
       <c r="C33" s="3">
-        <v>4.3020839999999998</v>
+        <v>5.196536</v>
       </c>
       <c r="D33" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E33" s="3">
-        <v>5.9953199999999998E-2</v>
+        <v>6.0306640000000002E-2</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99807570000000001</v>
+        <v>0.99813450000000004</v>
       </c>
       <c r="H33" s="5">
-        <v>3.8972050000000002E-5</v>
+        <v>3.9199319999999997E-5</v>
       </c>
       <c r="I33" s="3">
-        <v>0.50779160000000001</v>
+        <v>0.53425180000000005</v>
       </c>
       <c r="J33" s="3">
-        <v>20.654160000000001</v>
+        <v>20.369620000000001</v>
       </c>
       <c r="K33" s="3">
-        <v>0.30601610000000001</v>
+        <v>5.308046</v>
       </c>
       <c r="L33" s="3">
-        <v>1.333766</v>
+        <v>12.87261</v>
       </c>
       <c r="M33" s="3">
-        <v>0.2151507</v>
+        <v>3.7319279999999999</v>
       </c>
       <c r="N33" s="3">
-        <v>0.69322669999999997</v>
+        <v>0.69316359999999999</v>
       </c>
       <c r="O33" s="3">
-        <v>992.33590000000004</v>
+        <v>992.36839999999995</v>
       </c>
       <c r="P33" s="3"/>
     </row>
     <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45119.418796296297</v>
+        <v>45119.419039351851</v>
       </c>
       <c r="B34" s="3">
-        <v>1010.082</v>
+        <v>48392.71</v>
       </c>
       <c r="C34" s="3">
-        <v>4.3007949999999999</v>
+        <v>5.2437579999999997</v>
       </c>
       <c r="D34" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E34" s="3">
-        <v>5.9957120000000003E-2</v>
+        <v>6.0332509999999999E-2</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99807619999999997</v>
+        <v>0.99813879999999999</v>
       </c>
       <c r="H34" s="5">
-        <v>3.8974000000000003E-5</v>
+        <v>3.9216130000000001E-5</v>
       </c>
       <c r="I34" s="3">
-        <v>0.50964120000000002</v>
+        <v>0.4398782</v>
       </c>
       <c r="J34" s="3">
-        <v>20.651689999999999</v>
+        <v>20.32743</v>
       </c>
       <c r="K34" s="3">
-        <v>0.31629689999999999</v>
+        <v>5.6752079999999996</v>
       </c>
       <c r="L34" s="3">
-        <v>1.3575330000000001</v>
+        <v>13.71951</v>
       </c>
       <c r="M34" s="3">
-        <v>0.22237879999999999</v>
+        <v>3.9900679999999999</v>
       </c>
       <c r="N34" s="3">
-        <v>0.69305660000000002</v>
+        <v>0.70869439999999995</v>
       </c>
       <c r="O34" s="3">
-        <v>992.33759999999995</v>
+        <v>992.31610000000001</v>
       </c>
       <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45119.418807870374</v>
+        <v>45119.419050925928</v>
       </c>
       <c r="B35" s="3">
-        <v>1034.4590000000001</v>
+        <v>47620.81</v>
       </c>
       <c r="C35" s="3">
-        <v>4.299506</v>
+        <v>5.243989</v>
       </c>
       <c r="D35" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E35" s="3">
-        <v>5.996104E-2</v>
+        <v>6.033529E-2</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99807670000000004</v>
+        <v>0.9981392</v>
       </c>
       <c r="H35" s="5">
-        <v>3.8975949999999997E-5</v>
+        <v>3.9217939999999999E-5</v>
       </c>
       <c r="I35" s="3">
-        <v>0.51149089999999997</v>
+        <v>0.4344577</v>
       </c>
       <c r="J35" s="3">
-        <v>20.64922</v>
+        <v>20.3246</v>
       </c>
       <c r="K35" s="3">
-        <v>0.32657770000000003</v>
+        <v>5.7204670000000002</v>
       </c>
       <c r="L35" s="3">
-        <v>1.3812990000000001</v>
+        <v>13.823919999999999</v>
       </c>
       <c r="M35" s="3">
-        <v>0.22960700000000001</v>
+        <v>4.0218889999999998</v>
       </c>
       <c r="N35" s="3">
-        <v>0.69288649999999996</v>
+        <v>0.70948020000000001</v>
       </c>
       <c r="O35" s="3">
-        <v>992.33950000000004</v>
+        <v>992.31439999999998</v>
       </c>
       <c r="P35" s="3"/>
     </row>
     <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45119.418819444443</v>
+        <v>45119.419062499997</v>
       </c>
       <c r="B36" s="3">
-        <v>546.09410000000003</v>
+        <v>46848.91</v>
       </c>
       <c r="C36" s="3">
-        <v>4.5721480000000003</v>
+        <v>5.2442200000000003</v>
       </c>
       <c r="D36" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E36" s="3">
-        <v>6.000159E-2</v>
+        <v>6.0338070000000001E-2</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99808799999999998</v>
+        <v>0.99813969999999996</v>
       </c>
       <c r="H36" s="5">
-        <v>3.9019269999999999E-5</v>
+        <v>3.9219749999999997E-5</v>
       </c>
       <c r="I36" s="3">
-        <v>0.4346199</v>
+        <v>0.42903730000000001</v>
       </c>
       <c r="J36" s="3">
-        <v>20.590969999999999</v>
+        <v>20.321760000000001</v>
       </c>
       <c r="K36" s="3">
-        <v>1.2805340000000001</v>
+        <v>5.7657259999999999</v>
       </c>
       <c r="L36" s="3">
-        <v>3.5768049999999998</v>
+        <v>13.928330000000001</v>
       </c>
       <c r="M36" s="3">
-        <v>0.90030500000000002</v>
+        <v>4.0537089999999996</v>
       </c>
       <c r="N36" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.71026590000000001</v>
       </c>
       <c r="O36" s="3">
-        <v>992.34780000000001</v>
+        <v>992.31269999999995</v>
       </c>
       <c r="P36" s="3"/>
     </row>
     <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45119.41883101852</v>
+        <v>45119.419074074074</v>
       </c>
       <c r="B37" s="3">
-        <v>530.05179999999996</v>
+        <v>49592.51</v>
       </c>
       <c r="C37" s="3">
-        <v>4.5857070000000002</v>
+        <v>5.0937539999999997</v>
       </c>
       <c r="D37" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E37" s="3">
-        <v>6.0005049999999997E-2</v>
+        <v>6.0408320000000001E-2</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99808870000000005</v>
+        <v>0.99815129999999996</v>
       </c>
       <c r="H37" s="5">
-        <v>3.9021950000000003E-5</v>
+        <v>3.9265409999999999E-5</v>
       </c>
       <c r="I37" s="3">
-        <v>0.43235069999999998</v>
+        <v>0.401528</v>
       </c>
       <c r="J37" s="3">
-        <v>20.587420000000002</v>
+        <v>20.291440000000001</v>
       </c>
       <c r="K37" s="3">
-        <v>1.33249</v>
+        <v>6.8444529999999997</v>
       </c>
       <c r="L37" s="3">
-        <v>3.696434</v>
+        <v>16.416090000000001</v>
       </c>
       <c r="M37" s="3">
-        <v>0.93683360000000004</v>
+        <v>4.8121289999999997</v>
       </c>
       <c r="N37" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.71046909999999996</v>
       </c>
       <c r="O37" s="3">
-        <v>992.34860000000003</v>
+        <v>992.3374</v>
       </c>
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45119.418842592589</v>
+        <v>45119.419085648151</v>
       </c>
       <c r="B38" s="3">
-        <v>514.00959999999998</v>
+        <v>49365.09</v>
       </c>
       <c r="C38" s="3">
-        <v>4.5992670000000002</v>
+        <v>5.0870730000000002</v>
       </c>
       <c r="D38" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E38" s="3">
-        <v>6.0008499999999999E-2</v>
+        <v>6.0412500000000001E-2</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99808940000000002</v>
+        <v>0.99815200000000004</v>
       </c>
       <c r="H38" s="5">
-        <v>3.9024640000000002E-5</v>
+        <v>3.9268119999999999E-5</v>
       </c>
       <c r="I38" s="3">
-        <v>0.43008150000000001</v>
+        <v>0.39814949999999999</v>
       </c>
       <c r="J38" s="3">
-        <v>20.583870000000001</v>
+        <v>20.288979999999999</v>
       </c>
       <c r="K38" s="3">
-        <v>1.3844460000000001</v>
+        <v>6.9080269999999997</v>
       </c>
       <c r="L38" s="3">
-        <v>3.8160630000000002</v>
+        <v>16.562709999999999</v>
       </c>
       <c r="M38" s="3">
-        <v>0.97336219999999996</v>
+        <v>4.8568259999999999</v>
       </c>
       <c r="N38" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.71080589999999999</v>
       </c>
       <c r="O38" s="3">
-        <v>992.34939999999995</v>
+        <v>992.33759999999995</v>
       </c>
       <c r="P38" s="3"/>
     </row>
     <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45119.418854166666</v>
+        <v>45119.41909722222</v>
       </c>
       <c r="B39" s="3">
-        <v>13628.1</v>
+        <v>49137.68</v>
       </c>
       <c r="C39" s="3">
-        <v>5.0508480000000002</v>
+        <v>5.0803919999999998</v>
       </c>
       <c r="D39" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E39" s="3">
-        <v>6.0067919999999997E-2</v>
+        <v>6.0416669999999999E-2</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99809499999999995</v>
+        <v>0.9981527</v>
       </c>
       <c r="H39" s="5">
-        <v>3.9046320000000001E-5</v>
+        <v>3.927084E-5</v>
       </c>
       <c r="I39" s="3">
-        <v>0.45087529999999998</v>
+        <v>0.39477089999999998</v>
       </c>
       <c r="J39" s="3">
-        <v>20.56184</v>
+        <v>20.286519999999999</v>
       </c>
       <c r="K39" s="3">
-        <v>1.80715</v>
+        <v>6.9716009999999997</v>
       </c>
       <c r="L39" s="3">
-        <v>4.7958319999999999</v>
+        <v>16.709330000000001</v>
       </c>
       <c r="M39" s="3">
-        <v>1.270553</v>
+        <v>4.9015230000000001</v>
       </c>
       <c r="N39" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.71114270000000002</v>
       </c>
       <c r="O39" s="3">
-        <v>992.34939999999995</v>
+        <v>992.33780000000002</v>
       </c>
       <c r="P39" s="3"/>
     </row>
     <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45119.418865740743</v>
+        <v>45119.419108796297</v>
       </c>
       <c r="B40" s="3">
-        <v>14294.16</v>
+        <v>50285.48</v>
       </c>
       <c r="C40" s="3">
-        <v>5.0798620000000003</v>
+        <v>5.1581359999999998</v>
       </c>
       <c r="D40" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E40" s="3">
-        <v>6.0071859999999998E-2</v>
+        <v>6.0441929999999998E-2</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99809559999999997</v>
+        <v>0.99815679999999996</v>
       </c>
       <c r="H40" s="5">
-        <v>3.9048370000000002E-5</v>
+        <v>3.9287250000000002E-5</v>
       </c>
       <c r="I40" s="3">
-        <v>0.45031520000000003</v>
+        <v>0.43653940000000002</v>
       </c>
       <c r="J40" s="3">
-        <v>20.559460000000001</v>
+        <v>20.260619999999999</v>
       </c>
       <c r="K40" s="3">
-        <v>1.849097</v>
+        <v>7.342346</v>
       </c>
       <c r="L40" s="3">
-        <v>4.8927300000000002</v>
+        <v>17.56494</v>
       </c>
       <c r="M40" s="3">
-        <v>1.3000449999999999</v>
+        <v>5.1621829999999997</v>
       </c>
       <c r="N40" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.73445070000000001</v>
       </c>
       <c r="O40" s="3">
-        <v>992.34950000000003</v>
+        <v>992.30399999999997</v>
       </c>
       <c r="P40" s="3"/>
     </row>
     <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45119.418877314813</v>
+        <v>45119.419120370374</v>
       </c>
       <c r="B41" s="3">
-        <v>14960.22</v>
+        <v>50401.09</v>
       </c>
       <c r="C41" s="3">
-        <v>5.1088760000000004</v>
+        <v>5.1590470000000002</v>
       </c>
       <c r="D41" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E41" s="3">
-        <v>6.0075799999999999E-2</v>
+        <v>6.0444749999999998E-2</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99809610000000004</v>
+        <v>0.99815730000000003</v>
       </c>
       <c r="H41" s="5">
-        <v>3.9050410000000002E-5</v>
+        <v>3.9289090000000002E-5</v>
       </c>
       <c r="I41" s="3">
-        <v>0.44975520000000002</v>
+        <v>0.43812679999999998</v>
       </c>
       <c r="J41" s="3">
-        <v>20.55707</v>
+        <v>20.258600000000001</v>
       </c>
       <c r="K41" s="3">
-        <v>1.8910450000000001</v>
+        <v>7.3848159999999998</v>
       </c>
       <c r="L41" s="3">
-        <v>4.9896279999999997</v>
+        <v>17.66292</v>
       </c>
       <c r="M41" s="3">
-        <v>1.329537</v>
+        <v>5.192043</v>
       </c>
       <c r="N41" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.73568149999999999</v>
       </c>
       <c r="O41" s="3">
-        <v>992.34969999999998</v>
+        <v>992.30280000000005</v>
       </c>
       <c r="P41" s="3"/>
     </row>
     <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45119.418888888889</v>
+        <v>45119.419131944444</v>
       </c>
       <c r="B42" s="3">
-        <v>1777.1</v>
+        <v>50516.71</v>
       </c>
       <c r="C42" s="3">
-        <v>5.193956</v>
+        <v>5.1599570000000003</v>
       </c>
       <c r="D42" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E42" s="3">
-        <v>6.0112449999999998E-2</v>
+        <v>6.0447569999999999E-2</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99810209999999999</v>
+        <v>0.99815779999999998</v>
       </c>
       <c r="H42" s="5">
-        <v>3.9073740000000001E-5</v>
+        <v>3.9290920000000002E-5</v>
       </c>
       <c r="I42" s="3">
-        <v>0.55113610000000002</v>
+        <v>0.4397142</v>
       </c>
       <c r="J42" s="3">
-        <v>20.502559999999999</v>
+        <v>20.256589999999999</v>
       </c>
       <c r="K42" s="3">
-        <v>2.2674110000000001</v>
+        <v>7.4272859999999996</v>
       </c>
       <c r="L42" s="3">
-        <v>6.8321649999999998</v>
+        <v>17.76089</v>
       </c>
       <c r="M42" s="3">
-        <v>1.8909819999999999</v>
+        <v>5.221902</v>
       </c>
       <c r="N42" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.73691229999999996</v>
       </c>
       <c r="O42" s="3">
-        <v>992.33249999999998</v>
+        <v>992.30150000000003</v>
       </c>
       <c r="P42" s="3"/>
     </row>
     <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45119.418900462966</v>
+        <v>45119.41914351852</v>
       </c>
       <c r="B43" s="3">
-        <v>1356.2249999999999</v>
+        <v>55906.11</v>
       </c>
       <c r="C43" s="3">
-        <v>5.2079709999999997</v>
+        <v>5.200285</v>
       </c>
       <c r="D43" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E43" s="3">
-        <v>6.011565E-2</v>
+        <v>6.0485150000000001E-2</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99810259999999995</v>
+        <v>0.99816830000000001</v>
       </c>
       <c r="H43" s="5">
-        <v>3.9075439999999998E-5</v>
+        <v>3.9332989999999997E-5</v>
       </c>
       <c r="I43" s="3">
-        <v>0.55693999999999999</v>
+        <v>0.34373310000000001</v>
       </c>
       <c r="J43" s="3">
-        <v>20.499199999999998</v>
+        <v>20.20767</v>
       </c>
       <c r="K43" s="3">
-        <v>2.2963119999999999</v>
+        <v>8.3583660000000002</v>
       </c>
       <c r="L43" s="3">
-        <v>6.9504219999999997</v>
+        <v>19.907769999999999</v>
       </c>
       <c r="M43" s="3">
-        <v>1.9269879999999999</v>
+        <v>5.8765159999999996</v>
       </c>
       <c r="N43" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.73721639999999999</v>
       </c>
       <c r="O43" s="3">
-        <v>992.33150000000001</v>
+        <v>992.34410000000003</v>
       </c>
       <c r="P43" s="3"/>
     </row>
     <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45119.418912037036</v>
+        <v>45119.41915509259</v>
       </c>
       <c r="B44" s="3">
-        <v>935.34950000000003</v>
+        <v>56212.23</v>
       </c>
       <c r="C44" s="3">
-        <v>5.2219870000000004</v>
+        <v>5.2041029999999999</v>
       </c>
       <c r="D44" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E44" s="3">
-        <v>6.0118850000000001E-2</v>
+        <v>6.0487689999999997E-2</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99810299999999996</v>
+        <v>0.99816899999999997</v>
       </c>
       <c r="H44" s="5">
-        <v>3.9077130000000001E-5</v>
+        <v>3.9335580000000002E-5</v>
       </c>
       <c r="I44" s="3">
-        <v>0.56274389999999996</v>
+        <v>0.3395591</v>
       </c>
       <c r="J44" s="3">
-        <v>20.495850000000001</v>
+        <v>20.204509999999999</v>
       </c>
       <c r="K44" s="3">
-        <v>2.3252120000000001</v>
+        <v>8.4157519999999995</v>
       </c>
       <c r="L44" s="3">
-        <v>7.0686780000000002</v>
+        <v>20.040099999999999</v>
       </c>
       <c r="M44" s="3">
-        <v>1.9629939999999999</v>
+        <v>5.9168630000000002</v>
       </c>
       <c r="N44" s="3">
-        <v>0.69299999999999995</v>
+        <v>0.73774390000000001</v>
       </c>
       <c r="O44" s="3">
-        <v>992.3306</v>
+        <v>992.34559999999999</v>
       </c>
       <c r="P44" s="3"/>
     </row>
     <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45119.418923611112</v>
+        <v>45119.419166666667</v>
       </c>
       <c r="B45" s="3">
-        <v>811.60379999999998</v>
+        <v>56518.35</v>
       </c>
       <c r="C45" s="3">
-        <v>5.1280390000000002</v>
+        <v>5.2079219999999999</v>
       </c>
       <c r="D45" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E45" s="3">
-        <v>6.0180079999999997E-2</v>
+        <v>6.0490240000000001E-2</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99811340000000004</v>
+        <v>0.99816970000000005</v>
       </c>
       <c r="H45" s="5">
-        <v>3.9117050000000002E-5</v>
+        <v>3.9338159999999999E-5</v>
       </c>
       <c r="I45" s="3">
-        <v>0.55029090000000003</v>
+        <v>0.33538499999999999</v>
       </c>
       <c r="J45" s="3">
-        <v>20.466550000000002</v>
+        <v>20.201350000000001</v>
       </c>
       <c r="K45" s="3">
-        <v>3.2764359999999999</v>
+        <v>8.4731389999999998</v>
       </c>
       <c r="L45" s="3">
-        <v>8.3138939999999995</v>
+        <v>20.172440000000002</v>
       </c>
       <c r="M45" s="3">
-        <v>2.3424330000000002</v>
+        <v>5.9572099999999999</v>
       </c>
       <c r="N45" s="3">
-        <v>0.68531120000000001</v>
+        <v>0.73827140000000002</v>
       </c>
       <c r="O45" s="3">
-        <v>992.31320000000005</v>
+        <v>992.34720000000004</v>
       </c>
       <c r="P45" s="3"/>
     </row>
     <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45119.418935185182</v>
+        <v>45119.419178240743</v>
       </c>
       <c r="B46" s="3">
-        <v>516.26319999999998</v>
+        <v>42058.35</v>
       </c>
       <c r="C46" s="3">
-        <v>5.1249799999999999</v>
+        <v>5.2065200000000003</v>
       </c>
       <c r="D46" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E46" s="3">
-        <v>6.0184090000000003E-2</v>
+        <v>6.0547400000000001E-2</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99811399999999995</v>
+        <v>0.99817469999999997</v>
       </c>
       <c r="H46" s="5">
-        <v>3.9119660000000001E-5</v>
+        <v>3.9358150000000002E-5</v>
       </c>
       <c r="I46" s="3">
-        <v>0.55183519999999997</v>
+        <v>0.4107054</v>
       </c>
       <c r="J46" s="3">
-        <v>20.463819999999998</v>
+        <v>20.180040000000002</v>
       </c>
       <c r="K46" s="3">
-        <v>3.3346840000000002</v>
+        <v>8.6855089999999997</v>
       </c>
       <c r="L46" s="3">
-        <v>8.4197389999999999</v>
+        <v>20.662389999999998</v>
       </c>
       <c r="M46" s="3">
-        <v>2.3746860000000001</v>
+        <v>6.1065209999999999</v>
       </c>
       <c r="N46" s="3">
-        <v>0.68490790000000001</v>
+        <v>0.75335750000000001</v>
       </c>
       <c r="O46" s="3">
-        <v>992.31200000000001</v>
+        <v>992.33109999999999</v>
       </c>
       <c r="P46" s="3"/>
     </row>
     <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45119.418946759259</v>
+        <v>45119.419189814813</v>
       </c>
       <c r="B47" s="3">
-        <v>220.92250000000001</v>
+        <v>41428.589999999997</v>
       </c>
       <c r="C47" s="3">
-        <v>5.1219210000000004</v>
+        <v>5.2073280000000004</v>
       </c>
       <c r="D47" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E47" s="3">
-        <v>6.0188110000000003E-2</v>
+        <v>6.0551210000000001E-2</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99811470000000002</v>
+        <v>0.99817509999999998</v>
       </c>
       <c r="H47" s="5">
-        <v>3.9122270000000001E-5</v>
+        <v>3.9360129999999998E-5</v>
       </c>
       <c r="I47" s="3">
-        <v>0.55337970000000003</v>
+        <v>0.41250530000000002</v>
       </c>
       <c r="J47" s="3">
-        <v>20.461079999999999</v>
+        <v>20.177849999999999</v>
       </c>
       <c r="K47" s="3">
-        <v>3.3929320000000001</v>
+        <v>8.7173079999999992</v>
       </c>
       <c r="L47" s="3">
-        <v>8.5255829999999992</v>
+        <v>20.73573</v>
       </c>
       <c r="M47" s="3">
-        <v>2.4069389999999999</v>
+        <v>6.1288780000000003</v>
       </c>
       <c r="N47" s="3">
-        <v>0.68450449999999996</v>
+        <v>0.75415310000000002</v>
       </c>
       <c r="O47" s="3">
-        <v>992.3107</v>
+        <v>992.33109999999999</v>
       </c>
       <c r="P47" s="3"/>
     </row>
     <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45119.418958333335</v>
+        <v>45119.41920138889</v>
       </c>
       <c r="B48" s="3">
-        <v>50950.7</v>
+        <v>40798.839999999997</v>
       </c>
       <c r="C48" s="3">
-        <v>5.2871269999999999</v>
+        <v>5.2081379999999999</v>
       </c>
       <c r="D48" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E48" s="3">
-        <v>6.0222249999999998E-2</v>
+        <v>6.0555020000000001E-2</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99812040000000002</v>
+        <v>0.9981757</v>
       </c>
       <c r="H48" s="5">
-        <v>3.9144460000000002E-5</v>
+        <v>3.93621E-5</v>
       </c>
       <c r="I48" s="3">
-        <v>0.56860630000000001</v>
+        <v>0.41430519999999998</v>
       </c>
       <c r="J48" s="3">
-        <v>20.4148</v>
+        <v>20.175650000000001</v>
       </c>
       <c r="K48" s="3">
-        <v>3.8146339999999999</v>
+        <v>8.7491070000000004</v>
       </c>
       <c r="L48" s="3">
-        <v>9.4679780000000004</v>
+        <v>20.809069999999998</v>
       </c>
       <c r="M48" s="3">
-        <v>2.694401</v>
+        <v>6.1512349999999998</v>
       </c>
       <c r="N48" s="3">
-        <v>0.69196769999999996</v>
+        <v>0.75494879999999998</v>
       </c>
       <c r="O48" s="3">
-        <v>992.31889999999999</v>
+        <v>992.33119999999997</v>
       </c>
       <c r="P48" s="3"/>
     </row>
     <row r="49" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45119.418969907405</v>
+        <v>45119.419212962966</v>
       </c>
       <c r="B49" s="3">
-        <v>53630.19</v>
+        <v>44615.77</v>
       </c>
       <c r="C49" s="3">
-        <v>5.2939309999999997</v>
+        <v>5.0703420000000001</v>
       </c>
       <c r="D49" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E49" s="3">
-        <v>6.0225359999999999E-2</v>
+        <v>6.0584209999999999E-2</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99812089999999998</v>
+        <v>0.99818030000000002</v>
       </c>
       <c r="H49" s="5">
-        <v>3.9146490000000001E-5</v>
+        <v>3.9402990000000001E-5</v>
       </c>
       <c r="I49" s="3">
-        <v>0.56915530000000003</v>
+        <v>0.52066109999999999</v>
       </c>
       <c r="J49" s="3">
-        <v>20.411729999999999</v>
+        <v>20.12988</v>
       </c>
       <c r="K49" s="3">
-        <v>3.857218</v>
+        <v>9.4217759999999995</v>
       </c>
       <c r="L49" s="3">
-        <v>9.5444899999999997</v>
+        <v>22.3611</v>
       </c>
       <c r="M49" s="3">
-        <v>2.7177310000000001</v>
+        <v>6.6241669999999999</v>
       </c>
       <c r="N49" s="3">
-        <v>0.69219869999999994</v>
+        <v>0.80889940000000005</v>
       </c>
       <c r="O49" s="3">
-        <v>992.31899999999996</v>
+        <v>992.33040000000005</v>
       </c>
       <c r="P49" s="3"/>
     </row>
     <row r="50" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45119.418981481482</v>
+        <v>45119.419224537036</v>
       </c>
       <c r="B50" s="3">
-        <v>56309.69</v>
+        <v>44516.84</v>
       </c>
       <c r="C50" s="3">
-        <v>5.3007359999999997</v>
+        <v>5.0630660000000001</v>
       </c>
       <c r="D50" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E50" s="3">
-        <v>6.0228480000000001E-2</v>
+        <v>6.0586960000000002E-2</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99812140000000005</v>
+        <v>0.99818059999999997</v>
       </c>
       <c r="H50" s="5">
-        <v>3.914851E-5</v>
+        <v>3.940558E-5</v>
       </c>
       <c r="I50" s="3">
-        <v>0.56970430000000005</v>
+        <v>0.52783860000000005</v>
       </c>
       <c r="J50" s="3">
-        <v>20.408650000000002</v>
+        <v>20.126999999999999</v>
       </c>
       <c r="K50" s="3">
-        <v>3.8998020000000002</v>
+        <v>9.4619590000000002</v>
       </c>
       <c r="L50" s="3">
-        <v>9.6210009999999997</v>
+        <v>22.453810000000001</v>
       </c>
       <c r="M50" s="3">
-        <v>2.7410610000000002</v>
+        <v>6.6524200000000002</v>
       </c>
       <c r="N50" s="3">
-        <v>0.69242970000000004</v>
+        <v>0.81206730000000005</v>
       </c>
       <c r="O50" s="3">
-        <v>992.31899999999996</v>
+        <v>992.33010000000002</v>
       </c>
       <c r="P50" s="3"/>
     </row>
     <row r="51" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45119.418993055559</v>
+        <v>45119.419236111113</v>
       </c>
       <c r="B51" s="3">
-        <v>58989.19</v>
+        <v>44417.9</v>
       </c>
       <c r="C51" s="3">
-        <v>5.3075409999999996</v>
+        <v>5.0557889999999999</v>
       </c>
       <c r="D51" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E51" s="3">
-        <v>6.0231590000000002E-2</v>
+        <v>6.0589700000000003E-2</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99812199999999995</v>
+        <v>0.99818099999999998</v>
       </c>
       <c r="H51" s="5">
-        <v>3.9150529999999999E-5</v>
+        <v>3.9408169999999998E-5</v>
       </c>
       <c r="I51" s="3">
-        <v>0.57025329999999996</v>
+        <v>0.53501609999999999</v>
       </c>
       <c r="J51" s="3">
-        <v>20.40558</v>
+        <v>20.124130000000001</v>
       </c>
       <c r="K51" s="3">
-        <v>3.9423859999999999</v>
+        <v>9.5021430000000002</v>
       </c>
       <c r="L51" s="3">
-        <v>9.6975119999999997</v>
+        <v>22.546530000000001</v>
       </c>
       <c r="M51" s="3">
-        <v>2.7643900000000001</v>
+        <v>6.6806720000000004</v>
       </c>
       <c r="N51" s="3">
-        <v>0.69266070000000002</v>
+        <v>0.81523520000000005</v>
       </c>
       <c r="O51" s="3">
-        <v>992.31910000000005</v>
+        <v>992.3297</v>
       </c>
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45119.419004629628</v>
+        <v>45119.419247685182</v>
       </c>
       <c r="B52" s="3">
-        <v>64441.89</v>
+        <v>52598.51</v>
       </c>
       <c r="C52" s="3">
-        <v>5.1998309999999996</v>
+        <v>5.1765109999999996</v>
       </c>
       <c r="D52" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E52" s="3">
-        <v>6.0298320000000002E-2</v>
+        <v>6.0656639999999998E-2</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>0.9981331</v>
+        <v>0.99819179999999996</v>
       </c>
       <c r="H52" s="5">
-        <v>3.9193909999999998E-5</v>
+        <v>3.9429949999999997E-5</v>
       </c>
       <c r="I52" s="3">
-        <v>0.53687300000000004</v>
+        <v>0.4432179</v>
       </c>
       <c r="J52" s="3">
-        <v>20.374860000000002</v>
+        <v>20.096070000000001</v>
       </c>
       <c r="K52" s="3">
-        <v>5.1651949999999998</v>
+        <v>9.9514329999999998</v>
       </c>
       <c r="L52" s="3">
-        <v>12.543060000000001</v>
+        <v>23.582899999999999</v>
       </c>
       <c r="M52" s="3">
-        <v>3.6314929999999999</v>
+        <v>6.9965539999999997</v>
       </c>
       <c r="N52" s="3">
-        <v>0.69281740000000003</v>
+        <v>0.8165926</v>
       </c>
       <c r="O52" s="3">
-        <v>992.36360000000002</v>
+        <v>992.33810000000005</v>
       </c>
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45119.419016203705</v>
+        <v>45119.419259259259</v>
       </c>
       <c r="B53" s="3">
-        <v>65872.91</v>
+        <v>53120.65</v>
       </c>
       <c r="C53" s="3">
-        <v>5.1981840000000004</v>
+        <v>5.1799840000000001</v>
       </c>
       <c r="D53" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E53" s="3">
-        <v>6.0302479999999999E-2</v>
+        <v>6.0660779999999997E-2</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>0.99813379999999996</v>
+        <v>0.99819250000000004</v>
       </c>
       <c r="H53" s="5">
-        <v>3.9196609999999997E-5</v>
+        <v>3.9431960000000002E-5</v>
       </c>
       <c r="I53" s="3">
-        <v>0.53556239999999999</v>
+        <v>0.44056339999999999</v>
       </c>
       <c r="J53" s="3">
-        <v>20.372240000000001</v>
+        <v>20.093610000000002</v>
       </c>
       <c r="K53" s="3">
-        <v>5.2366200000000003</v>
+        <v>9.9895980000000009</v>
       </c>
       <c r="L53" s="3">
-        <v>12.707839999999999</v>
+        <v>23.670940000000002</v>
       </c>
       <c r="M53" s="3">
-        <v>3.681711</v>
+        <v>7.0233860000000004</v>
       </c>
       <c r="N53" s="3">
-        <v>0.69299049999999995</v>
+        <v>0.81780419999999998</v>
       </c>
       <c r="O53" s="3">
-        <v>992.36599999999999</v>
+        <v>992.33860000000004</v>
       </c>
       <c r="P53" s="3"/>
     </row>
     <row r="54" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45119.419027777774</v>
+        <v>45119.419270833336</v>
       </c>
       <c r="B54" s="3">
-        <v>67303.92</v>
+        <v>53642.8</v>
       </c>
       <c r="C54" s="3">
-        <v>5.196536</v>
+        <v>5.1834569999999998</v>
       </c>
       <c r="D54" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>6.0306640000000002E-2</v>
+        <v>6.0664929999999999E-2</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>0.99813450000000004</v>
+        <v>0.9981932</v>
       </c>
       <c r="H54" s="5">
-        <v>3.9199319999999997E-5</v>
+        <v>3.9433990000000002E-5</v>
       </c>
       <c r="I54" s="3">
-        <v>0.53425180000000005</v>
+        <v>0.43790889999999999</v>
       </c>
       <c r="J54" s="3">
-        <v>20.369620000000001</v>
+        <v>20.091159999999999</v>
       </c>
       <c r="K54" s="3">
-        <v>5.308046</v>
+        <v>10.027760000000001</v>
       </c>
       <c r="L54" s="3">
-        <v>12.87261</v>
+        <v>23.758980000000001</v>
       </c>
       <c r="M54" s="3">
-        <v>3.7319279999999999</v>
+        <v>7.0502190000000002</v>
       </c>
       <c r="N54" s="3">
-        <v>0.69316359999999999</v>
+        <v>0.81901570000000001</v>
       </c>
       <c r="O54" s="3">
-        <v>992.36839999999995</v>
+        <v>992.33900000000006</v>
       </c>
       <c r="P54" s="3"/>
     </row>
     <row r="55" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>45119.419039351851</v>
+        <v>45119.419282407405</v>
       </c>
       <c r="B55" s="3">
-        <v>48392.71</v>
+        <v>32246.39</v>
       </c>
       <c r="C55" s="3">
-        <v>5.2437579999999997</v>
+        <v>5.0358850000000004</v>
       </c>
       <c r="D55" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E55" s="3">
-        <v>6.0332509999999999E-2</v>
+        <v>6.0696699999999999E-2</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>0.99813879999999999</v>
+        <v>0.99819829999999998</v>
       </c>
       <c r="H55" s="5">
-        <v>3.9216130000000001E-5</v>
+        <v>3.9453930000000001E-5</v>
       </c>
       <c r="I55" s="3">
-        <v>0.4398782</v>
+        <v>0.36450280000000002</v>
       </c>
       <c r="J55" s="3">
-        <v>20.32743</v>
+        <v>20.042290000000001</v>
       </c>
       <c r="K55" s="3">
-        <v>5.6752079999999996</v>
+        <v>10.357279999999999</v>
       </c>
       <c r="L55" s="3">
-        <v>13.71951</v>
+        <v>24.517659999999999</v>
       </c>
       <c r="M55" s="3">
-        <v>3.9900679999999999</v>
+        <v>7.8271680000000003</v>
       </c>
       <c r="N55" s="3">
-        <v>0.70869439999999995</v>
+        <v>0.86513660000000003</v>
       </c>
       <c r="O55" s="3">
-        <v>992.31610000000001</v>
+        <v>992.35599999999999</v>
       </c>
       <c r="P55" s="3"/>
     </row>
     <row r="56" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>45119.419050925928</v>
+        <v>45119.419293981482</v>
       </c>
       <c r="B56" s="3">
-        <v>47620.81</v>
+        <v>31270.99</v>
       </c>
       <c r="C56" s="3">
-        <v>5.243989</v>
+        <v>5.0306009999999999</v>
       </c>
       <c r="D56" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E56" s="3">
-        <v>6.033529E-2</v>
+        <v>6.0699799999999998E-2</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>0.9981392</v>
+        <v>0.99819880000000005</v>
       </c>
       <c r="H56" s="5">
-        <v>3.9217939999999999E-5</v>
+        <v>3.9455439999999998E-5</v>
       </c>
       <c r="I56" s="3">
-        <v>0.4344577</v>
+        <v>0.35859229999999997</v>
       </c>
       <c r="J56" s="3">
-        <v>20.3246</v>
+        <v>20.039110000000001</v>
       </c>
       <c r="K56" s="3">
-        <v>5.7204670000000002</v>
+        <v>10.38401</v>
       </c>
       <c r="L56" s="3">
-        <v>13.823919999999999</v>
+        <v>24.579249999999998</v>
       </c>
       <c r="M56" s="3">
-        <v>4.0218889999999998</v>
+        <v>7.8751369999999996</v>
       </c>
       <c r="N56" s="3">
-        <v>0.70948020000000001</v>
+        <v>0.86760499999999996</v>
       </c>
       <c r="O56" s="3">
-        <v>992.31439999999998</v>
+        <v>992.35709999999995</v>
       </c>
       <c r="P56" s="3"/>
     </row>
     <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>45119.419062499997</v>
+        <v>45119.419305555559</v>
       </c>
       <c r="B57" s="3">
-        <v>46848.91</v>
+        <v>30295.599999999999</v>
       </c>
       <c r="C57" s="3">
-        <v>5.2442200000000003</v>
+        <v>5.0253170000000003</v>
       </c>
       <c r="D57" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E57" s="3">
-        <v>6.0338070000000001E-2</v>
+        <v>6.0702890000000002E-2</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0.99813969999999996</v>
+        <v>0.99819930000000001</v>
       </c>
       <c r="H57" s="5">
-        <v>3.9219749999999997E-5</v>
+        <v>3.9456950000000002E-5</v>
       </c>
       <c r="I57" s="3">
-        <v>0.42903730000000001</v>
+        <v>0.35268169999999999</v>
       </c>
       <c r="J57" s="3">
-        <v>20.321760000000001</v>
+        <v>20.03593</v>
       </c>
       <c r="K57" s="3">
-        <v>5.7657259999999999</v>
+        <v>10.410740000000001</v>
       </c>
       <c r="L57" s="3">
-        <v>13.928330000000001</v>
+        <v>24.640830000000001</v>
       </c>
       <c r="M57" s="3">
-        <v>4.0537089999999996</v>
+        <v>7.9231059999999998</v>
       </c>
       <c r="N57" s="3">
-        <v>0.71026590000000001</v>
+        <v>0.8700736</v>
       </c>
       <c r="O57" s="3">
-        <v>992.31269999999995</v>
+        <v>992.35820000000001</v>
       </c>
       <c r="P57" s="3"/>
     </row>
     <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>45119.419074074074</v>
+        <v>45119.419317129628</v>
       </c>
       <c r="B58" s="3">
-        <v>49592.51</v>
+        <v>29320.2</v>
       </c>
       <c r="C58" s="3">
-        <v>5.0937539999999997</v>
+        <v>5.0200329999999997</v>
       </c>
       <c r="D58" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E58" s="3">
-        <v>6.0408320000000001E-2</v>
+        <v>6.0705990000000001E-2</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0.99815129999999996</v>
+        <v>0.99819979999999997</v>
       </c>
       <c r="H58" s="5">
-        <v>3.9265409999999999E-5</v>
+        <v>3.9458449999999998E-5</v>
       </c>
       <c r="I58" s="3">
-        <v>0.401528</v>
+        <v>0.3467711</v>
       </c>
       <c r="J58" s="3">
-        <v>20.291440000000001</v>
+        <v>20.03275</v>
       </c>
       <c r="K58" s="3">
-        <v>6.8444529999999997</v>
+        <v>10.437480000000001</v>
       </c>
       <c r="L58" s="3">
-        <v>16.416090000000001</v>
+        <v>24.70242</v>
       </c>
       <c r="M58" s="3">
-        <v>4.8121289999999997</v>
+        <v>7.9710760000000001</v>
       </c>
       <c r="N58" s="3">
-        <v>0.71046909999999996</v>
+        <v>0.87254200000000004</v>
       </c>
       <c r="O58" s="3">
-        <v>992.3374</v>
+        <v>992.35929999999996</v>
       </c>
       <c r="P58" s="3"/>
     </row>
     <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>45119.419085648151</v>
+        <v>45119.419328703705</v>
       </c>
       <c r="B59" s="3">
-        <v>49365.09</v>
+        <v>24175.72</v>
       </c>
       <c r="C59" s="3">
-        <v>5.0870730000000002</v>
+        <v>5.1111360000000001</v>
       </c>
       <c r="D59" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E59" s="3">
-        <v>6.0412500000000001E-2</v>
+        <v>6.0763329999999997E-2</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>0.99815200000000004</v>
+        <v>0.99820900000000001</v>
       </c>
       <c r="H59" s="5">
-        <v>3.9268119999999999E-5</v>
+        <v>3.949616E-5</v>
       </c>
       <c r="I59" s="3">
-        <v>0.39814949999999999</v>
+        <v>0.46949689999999999</v>
       </c>
       <c r="J59" s="3">
-        <v>20.288979999999999</v>
+        <v>20.014040000000001</v>
       </c>
       <c r="K59" s="3">
-        <v>6.9080269999999997</v>
+        <v>11.70088</v>
       </c>
       <c r="L59" s="3">
-        <v>16.562709999999999</v>
+        <v>27.61675</v>
       </c>
       <c r="M59" s="3">
-        <v>4.8568259999999999</v>
+        <v>8.2876910000000006</v>
       </c>
       <c r="N59" s="3">
-        <v>0.71080589999999999</v>
+        <v>0.90455249999999998</v>
       </c>
       <c r="O59" s="3">
-        <v>992.33759999999995</v>
+        <v>992.30619999999999</v>
       </c>
       <c r="P59" s="3"/>
     </row>
     <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45119.41909722222</v>
+        <v>45119.419340277775</v>
       </c>
       <c r="B60" s="3">
-        <v>49137.68</v>
+        <v>23427.31</v>
       </c>
       <c r="C60" s="3">
-        <v>5.0803919999999998</v>
+        <v>5.1125249999999998</v>
       </c>
       <c r="D60" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E60" s="3">
-        <v>6.0416669999999999E-2</v>
+        <v>6.076703E-2</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>0.9981527</v>
+        <v>0.99820960000000003</v>
       </c>
       <c r="H60" s="5">
-        <v>3.927084E-5</v>
+        <v>3.949857E-5</v>
       </c>
       <c r="I60" s="3">
-        <v>0.39477089999999998</v>
+        <v>0.47413430000000001</v>
       </c>
       <c r="J60" s="3">
-        <v>20.286519999999999</v>
+        <v>20.011959999999998</v>
       </c>
       <c r="K60" s="3">
-        <v>6.9716009999999997</v>
+        <v>11.773680000000001</v>
       </c>
       <c r="L60" s="3">
-        <v>16.709330000000001</v>
+        <v>27.784649999999999</v>
       </c>
       <c r="M60" s="3">
-        <v>4.9015230000000001</v>
+        <v>8.3217560000000006</v>
       </c>
       <c r="N60" s="3">
-        <v>0.71114270000000002</v>
+        <v>0.90725109999999998</v>
       </c>
       <c r="O60" s="3">
-        <v>992.33780000000002</v>
+        <v>992.3039</v>
       </c>
       <c r="P60" s="3"/>
     </row>
     <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>45119.419108796297</v>
+        <v>45119.419351851851</v>
       </c>
       <c r="B61" s="3">
-        <v>50285.48</v>
+        <v>22678.89</v>
       </c>
       <c r="C61" s="3">
-        <v>5.1581359999999998</v>
+        <v>5.1139150000000004</v>
       </c>
       <c r="D61" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E61" s="3">
-        <v>6.0441929999999998E-2</v>
+        <v>6.0770739999999997E-2</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0.99815679999999996</v>
+        <v>0.99821020000000005</v>
       </c>
       <c r="H61" s="5">
-        <v>3.9287250000000002E-5</v>
+        <v>3.9500969999999998E-5</v>
       </c>
       <c r="I61" s="3">
-        <v>0.43653940000000002</v>
+        <v>0.47877170000000002</v>
       </c>
       <c r="J61" s="3">
-        <v>20.260619999999999</v>
+        <v>20.009869999999999</v>
       </c>
       <c r="K61" s="3">
-        <v>7.342346</v>
+        <v>11.846489999999999</v>
       </c>
       <c r="L61" s="3">
-        <v>17.56494</v>
+        <v>27.952559999999998</v>
       </c>
       <c r="M61" s="3">
-        <v>5.1621829999999997</v>
+        <v>8.3558230000000009</v>
       </c>
       <c r="N61" s="3">
-        <v>0.73445070000000001</v>
+        <v>0.90994960000000003</v>
       </c>
       <c r="O61" s="3">
-        <v>992.30399999999997</v>
+        <v>992.30150000000003</v>
       </c>
       <c r="P61" s="3"/>
     </row>
     <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>45119.419120370374</v>
+        <v>45119.419363425928</v>
       </c>
       <c r="B62" s="3">
-        <v>50401.09</v>
+        <v>21188.959999999999</v>
       </c>
       <c r="C62" s="3">
-        <v>5.1590470000000002</v>
+        <v>5.0436759999999996</v>
       </c>
       <c r="D62" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E62" s="3">
-        <v>6.0444749999999998E-2</v>
+        <v>6.0798249999999998E-2</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>0.99815730000000003</v>
+        <v>0.99821470000000001</v>
       </c>
       <c r="H62" s="5">
-        <v>3.9289090000000002E-5</v>
+        <v>3.9518860000000003E-5</v>
       </c>
       <c r="I62" s="3">
-        <v>0.43812679999999998</v>
+        <v>0.47373510000000002</v>
       </c>
       <c r="J62" s="3">
-        <v>20.258600000000001</v>
+        <v>19.96246</v>
       </c>
       <c r="K62" s="3">
-        <v>7.3848159999999998</v>
+        <v>12.422689999999999</v>
       </c>
       <c r="L62" s="3">
-        <v>17.66292</v>
+        <v>29.282879999999999</v>
       </c>
       <c r="M62" s="3">
-        <v>5.192043</v>
+        <v>8.7487089999999998</v>
       </c>
       <c r="N62" s="3">
-        <v>0.73568149999999999</v>
+        <v>0.94885030000000004</v>
       </c>
       <c r="O62" s="3">
-        <v>992.30280000000005</v>
+        <v>992.3451</v>
       </c>
       <c r="P62" s="3"/>
     </row>
     <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>45119.419131944444</v>
+        <v>45119.419374999998</v>
       </c>
       <c r="B63" s="3">
-        <v>50516.71</v>
+        <v>20983.200000000001</v>
       </c>
       <c r="C63" s="3">
-        <v>5.1599570000000003</v>
+        <v>5.0419479999999997</v>
       </c>
       <c r="D63" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E63" s="3">
-        <v>6.0447569999999999E-2</v>
+        <v>6.0800979999999998E-2</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>0.99815779999999998</v>
+        <v>0.99821510000000002</v>
       </c>
       <c r="H63" s="5">
-        <v>3.9290920000000002E-5</v>
+        <v>3.9520639999999998E-5</v>
       </c>
       <c r="I63" s="3">
-        <v>0.4397142</v>
+        <v>0.47606290000000001</v>
       </c>
       <c r="J63" s="3">
-        <v>20.256589999999999</v>
+        <v>19.959530000000001</v>
       </c>
       <c r="K63" s="3">
-        <v>7.4272859999999996</v>
+        <v>12.4808</v>
       </c>
       <c r="L63" s="3">
-        <v>17.76089</v>
+        <v>29.416969999999999</v>
       </c>
       <c r="M63" s="3">
-        <v>5.221902</v>
+        <v>8.7768650000000008</v>
       </c>
       <c r="N63" s="3">
-        <v>0.73691229999999996</v>
+        <v>0.9516133</v>
       </c>
       <c r="O63" s="3">
-        <v>992.30150000000003</v>
+        <v>992.34619999999995</v>
       </c>
       <c r="P63" s="3"/>
     </row>
     <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>45119.41914351852</v>
+        <v>45119.419386574074</v>
       </c>
       <c r="B64" s="3">
-        <v>55906.11</v>
+        <v>20777.439999999999</v>
       </c>
       <c r="C64" s="3">
-        <v>5.200285</v>
+        <v>5.0402189999999996</v>
       </c>
       <c r="D64" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E64" s="3">
-        <v>6.0485150000000001E-2</v>
+        <v>6.080373E-2</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>0.99816830000000001</v>
+        <v>0.99821559999999998</v>
       </c>
       <c r="H64" s="5">
-        <v>3.9332989999999997E-5</v>
+        <v>3.9522420000000001E-5</v>
       </c>
       <c r="I64" s="3">
-        <v>0.34373310000000001</v>
+        <v>0.4783907</v>
       </c>
       <c r="J64" s="3">
-        <v>20.20767</v>
+        <v>19.956610000000001</v>
       </c>
       <c r="K64" s="3">
-        <v>8.3583660000000002</v>
+        <v>12.5389</v>
       </c>
       <c r="L64" s="3">
-        <v>19.907769999999999</v>
+        <v>29.55106</v>
       </c>
       <c r="M64" s="3">
-        <v>5.8765159999999996</v>
+        <v>8.805021</v>
       </c>
       <c r="N64" s="3">
-        <v>0.73721639999999999</v>
+        <v>0.95437629999999996</v>
       </c>
       <c r="O64" s="3">
-        <v>992.34410000000003</v>
+        <v>992.34739999999999</v>
       </c>
       <c r="P64" s="3"/>
     </row>
     <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>45119.41915509259</v>
+        <v>45119.419398148151</v>
       </c>
       <c r="B65" s="3">
-        <v>56212.23</v>
+        <v>15990.33</v>
       </c>
       <c r="C65" s="3">
-        <v>5.2041029999999999</v>
+        <v>4.9140110000000004</v>
       </c>
       <c r="D65" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E65" s="3">
-        <v>6.0487689999999997E-2</v>
+        <v>6.0828559999999997E-2</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>0.99816899999999997</v>
+        <v>0.99822420000000001</v>
       </c>
       <c r="H65" s="5">
-        <v>3.9335580000000002E-5</v>
+        <v>3.955757E-5</v>
       </c>
       <c r="I65" s="3">
-        <v>0.3395591</v>
+        <v>0.43890109999999999</v>
       </c>
       <c r="J65" s="3">
-        <v>20.204509999999999</v>
+        <v>19.936710000000001</v>
       </c>
       <c r="K65" s="3">
-        <v>8.4157519999999995</v>
+        <v>13.422790000000001</v>
       </c>
       <c r="L65" s="3">
-        <v>20.040099999999999</v>
+        <v>31.58859</v>
       </c>
       <c r="M65" s="3">
-        <v>5.9168630000000002</v>
+        <v>9.4371580000000002</v>
       </c>
       <c r="N65" s="3">
-        <v>0.73774390000000001</v>
+        <v>0.97750539999999997</v>
       </c>
       <c r="O65" s="3">
-        <v>992.34559999999999</v>
+        <v>992.36599999999999</v>
       </c>
       <c r="P65" s="3"/>
     </row>
     <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>45119.419166666667</v>
+        <v>45119.419409722221</v>
       </c>
       <c r="B66" s="3">
-        <v>56518.35</v>
+        <v>15697.04</v>
       </c>
       <c r="C66" s="3">
-        <v>5.2079219999999999</v>
+        <v>4.9059679999999997</v>
       </c>
       <c r="D66" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E66" s="3">
-        <v>6.0490240000000001E-2</v>
+        <v>6.0830509999999997E-2</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>0.99816970000000005</v>
+        <v>0.99822469999999996</v>
       </c>
       <c r="H66" s="5">
-        <v>3.9338159999999999E-5</v>
+        <v>3.9559820000000002E-5</v>
       </c>
       <c r="I66" s="3">
-        <v>0.33538499999999999</v>
+        <v>0.43683040000000001</v>
       </c>
       <c r="J66" s="3">
-        <v>20.201350000000001</v>
+        <v>19.9346</v>
       </c>
       <c r="K66" s="3">
-        <v>8.4731389999999998</v>
+        <v>13.482390000000001</v>
       </c>
       <c r="L66" s="3">
-        <v>20.172440000000002</v>
+        <v>31.726030000000002</v>
       </c>
       <c r="M66" s="3">
-        <v>5.9572099999999999</v>
+        <v>9.4790600000000005</v>
       </c>
       <c r="N66" s="3">
-        <v>0.73827140000000002</v>
+        <v>0.97960590000000003</v>
       </c>
       <c r="O66" s="3">
-        <v>992.34720000000004</v>
+        <v>992.36789999999996</v>
       </c>
       <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>45119.419178240743</v>
-      </c>
-      <c r="B67" s="3">
-        <v>42058.35</v>
-      </c>
-      <c r="C67" s="3">
-        <v>5.2065200000000003</v>
-      </c>
-      <c r="D67" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E67" s="3">
-        <v>6.0547400000000001E-2</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0.99817469999999997</v>
-      </c>
-      <c r="H67" s="5">
-        <v>3.9358150000000002E-5</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0.4107054</v>
-      </c>
-      <c r="J67" s="3">
-        <v>20.180040000000002</v>
-      </c>
-      <c r="K67" s="3">
-        <v>8.6855089999999997</v>
-      </c>
-      <c r="L67" s="3">
-        <v>20.662389999999998</v>
-      </c>
-      <c r="M67" s="3">
-        <v>6.1065209999999999</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0.75335750000000001</v>
-      </c>
-      <c r="O67" s="3">
-        <v>992.33109999999999</v>
-      </c>
-      <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>45119.419189814813</v>
-      </c>
-      <c r="B68" s="3">
-        <v>41428.589999999997</v>
-      </c>
-      <c r="C68" s="3">
-        <v>5.2073280000000004</v>
-      </c>
-      <c r="D68" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E68" s="3">
-        <v>6.0551210000000001E-2</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.99817509999999998</v>
-      </c>
-      <c r="H68" s="5">
-        <v>3.9360129999999998E-5</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0.41250530000000002</v>
-      </c>
-      <c r="J68" s="3">
-        <v>20.177849999999999</v>
-      </c>
-      <c r="K68" s="3">
-        <v>8.7173079999999992</v>
-      </c>
-      <c r="L68" s="3">
-        <v>20.73573</v>
-      </c>
-      <c r="M68" s="3">
-        <v>6.1288780000000003</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0.75415310000000002</v>
-      </c>
-      <c r="O68" s="3">
-        <v>992.33109999999999</v>
-      </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>45119.41920138889</v>
-      </c>
-      <c r="B69" s="3">
-        <v>40798.839999999997</v>
-      </c>
-      <c r="C69" s="3">
-        <v>5.2081379999999999</v>
-      </c>
-      <c r="D69" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E69" s="3">
-        <v>6.0555020000000001E-2</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0.9981757</v>
-      </c>
-      <c r="H69" s="5">
-        <v>3.93621E-5</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0.41430519999999998</v>
-      </c>
-      <c r="J69" s="3">
-        <v>20.175650000000001</v>
-      </c>
-      <c r="K69" s="3">
-        <v>8.7491070000000004</v>
-      </c>
-      <c r="L69" s="3">
-        <v>20.809069999999998</v>
-      </c>
-      <c r="M69" s="3">
-        <v>6.1512349999999998</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0.75494879999999998</v>
-      </c>
-      <c r="O69" s="3">
-        <v>992.33119999999997</v>
-      </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>45119.419212962966</v>
-      </c>
-      <c r="B70" s="3">
-        <v>44615.77</v>
-      </c>
-      <c r="C70" s="3">
-        <v>5.0703420000000001</v>
-      </c>
-      <c r="D70" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E70" s="3">
-        <v>6.0584209999999999E-2</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.99818030000000002</v>
-      </c>
-      <c r="H70" s="5">
-        <v>3.9402990000000001E-5</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0.52066109999999999</v>
-      </c>
-      <c r="J70" s="3">
-        <v>20.12988</v>
-      </c>
-      <c r="K70" s="3">
-        <v>9.4217759999999995</v>
-      </c>
-      <c r="L70" s="3">
-        <v>22.3611</v>
-      </c>
-      <c r="M70" s="3">
-        <v>6.6241669999999999</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0.80889940000000005</v>
-      </c>
-      <c r="O70" s="3">
-        <v>992.33040000000005</v>
-      </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>45119.419224537036</v>
-      </c>
-      <c r="B71" s="3">
-        <v>44516.84</v>
-      </c>
-      <c r="C71" s="3">
-        <v>5.0630660000000001</v>
-      </c>
-      <c r="D71" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E71" s="3">
-        <v>6.0586960000000002E-2</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0.99818059999999997</v>
-      </c>
-      <c r="H71" s="5">
-        <v>3.940558E-5</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0.52783860000000005</v>
-      </c>
-      <c r="J71" s="3">
-        <v>20.126999999999999</v>
-      </c>
-      <c r="K71" s="3">
-        <v>9.4619590000000002</v>
-      </c>
-      <c r="L71" s="3">
-        <v>22.453810000000001</v>
-      </c>
-      <c r="M71" s="3">
-        <v>6.6524200000000002</v>
-      </c>
-      <c r="N71" s="3">
-        <v>0.81206730000000005</v>
-      </c>
-      <c r="O71" s="3">
-        <v>992.33010000000002</v>
-      </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>45119.419236111113</v>
-      </c>
-      <c r="B72" s="3">
-        <v>44417.9</v>
-      </c>
-      <c r="C72" s="3">
-        <v>5.0557889999999999</v>
-      </c>
-      <c r="D72" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E72" s="3">
-        <v>6.0589700000000003E-2</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0.99818099999999998</v>
-      </c>
-      <c r="H72" s="5">
-        <v>3.9408169999999998E-5</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0.53501609999999999</v>
-      </c>
-      <c r="J72" s="3">
-        <v>20.124130000000001</v>
-      </c>
-      <c r="K72" s="3">
-        <v>9.5021430000000002</v>
-      </c>
-      <c r="L72" s="3">
-        <v>22.546530000000001</v>
-      </c>
-      <c r="M72" s="3">
-        <v>6.6806720000000004</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0.81523520000000005</v>
-      </c>
-      <c r="O72" s="3">
-        <v>992.3297</v>
-      </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>45119.419247685182</v>
-      </c>
-      <c r="B73" s="3">
-        <v>52598.51</v>
-      </c>
-      <c r="C73" s="3">
-        <v>5.1765109999999996</v>
-      </c>
-      <c r="D73" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E73" s="3">
-        <v>6.0656639999999998E-2</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0.99819179999999996</v>
-      </c>
-      <c r="H73" s="5">
-        <v>3.9429949999999997E-5</v>
-      </c>
-      <c r="I73" s="3">
-        <v>0.4432179</v>
-      </c>
-      <c r="J73" s="3">
-        <v>20.096070000000001</v>
-      </c>
-      <c r="K73" s="3">
-        <v>9.9514329999999998</v>
-      </c>
-      <c r="L73" s="3">
-        <v>23.582899999999999</v>
-      </c>
-      <c r="M73" s="3">
-        <v>6.9965539999999997</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0.8165926</v>
-      </c>
-      <c r="O73" s="3">
-        <v>992.33810000000005</v>
-      </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>45119.419259259259</v>
-      </c>
-      <c r="B74" s="3">
-        <v>53120.65</v>
-      </c>
-      <c r="C74" s="3">
-        <v>5.1799840000000001</v>
-      </c>
-      <c r="D74" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E74" s="3">
-        <v>6.0660779999999997E-2</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>0.99819250000000004</v>
-      </c>
-      <c r="H74" s="5">
-        <v>3.9431960000000002E-5</v>
-      </c>
-      <c r="I74" s="3">
-        <v>0.44056339999999999</v>
-      </c>
-      <c r="J74" s="3">
-        <v>20.093610000000002</v>
-      </c>
-      <c r="K74" s="3">
-        <v>9.9895980000000009</v>
-      </c>
-      <c r="L74" s="3">
-        <v>23.670940000000002</v>
-      </c>
-      <c r="M74" s="3">
-        <v>7.0233860000000004</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0.81780419999999998</v>
-      </c>
-      <c r="O74" s="3">
-        <v>992.33860000000004</v>
-      </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>45119.419270833336</v>
-      </c>
-      <c r="B75" s="3">
-        <v>53642.8</v>
-      </c>
-      <c r="C75" s="3">
-        <v>5.1834569999999998</v>
-      </c>
-      <c r="D75" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E75" s="3">
-        <v>6.0664929999999999E-2</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>0.9981932</v>
-      </c>
-      <c r="H75" s="5">
-        <v>3.9433990000000002E-5</v>
-      </c>
-      <c r="I75" s="3">
-        <v>0.43790889999999999</v>
-      </c>
-      <c r="J75" s="3">
-        <v>20.091159999999999</v>
-      </c>
-      <c r="K75" s="3">
-        <v>10.027760000000001</v>
-      </c>
-      <c r="L75" s="3">
-        <v>23.758980000000001</v>
-      </c>
-      <c r="M75" s="3">
-        <v>7.0502190000000002</v>
-      </c>
-      <c r="N75" s="3">
-        <v>0.81901570000000001</v>
-      </c>
-      <c r="O75" s="3">
-        <v>992.33900000000006</v>
-      </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>45119.419282407405</v>
-      </c>
-      <c r="B76" s="3">
-        <v>32246.39</v>
-      </c>
-      <c r="C76" s="3">
-        <v>5.0358850000000004</v>
-      </c>
-      <c r="D76" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E76" s="3">
-        <v>6.0696699999999999E-2</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0.99819829999999998</v>
-      </c>
-      <c r="H76" s="5">
-        <v>3.9453930000000001E-5</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0.36450280000000002</v>
-      </c>
-      <c r="J76" s="3">
-        <v>20.042290000000001</v>
-      </c>
-      <c r="K76" s="3">
-        <v>10.357279999999999</v>
-      </c>
-      <c r="L76" s="3">
-        <v>24.517659999999999</v>
-      </c>
-      <c r="M76" s="3">
-        <v>7.8271680000000003</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0.86513660000000003</v>
-      </c>
-      <c r="O76" s="3">
-        <v>992.35599999999999</v>
-      </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>45119.419293981482</v>
-      </c>
-      <c r="B77" s="3">
-        <v>31270.99</v>
-      </c>
-      <c r="C77" s="3">
-        <v>5.0306009999999999</v>
-      </c>
-      <c r="D77" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E77" s="3">
-        <v>6.0699799999999998E-2</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0.99819880000000005</v>
-      </c>
-      <c r="H77" s="5">
-        <v>3.9455439999999998E-5</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0.35859229999999997</v>
-      </c>
-      <c r="J77" s="3">
-        <v>20.039110000000001</v>
-      </c>
-      <c r="K77" s="3">
-        <v>10.38401</v>
-      </c>
-      <c r="L77" s="3">
-        <v>24.579249999999998</v>
-      </c>
-      <c r="M77" s="3">
-        <v>7.8751369999999996</v>
-      </c>
-      <c r="N77" s="3">
-        <v>0.86760499999999996</v>
-      </c>
-      <c r="O77" s="3">
-        <v>992.35709999999995</v>
-      </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>45119.419305555559</v>
-      </c>
-      <c r="B78" s="3">
-        <v>30295.599999999999</v>
-      </c>
-      <c r="C78" s="3">
-        <v>5.0253170000000003</v>
-      </c>
-      <c r="D78" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E78" s="3">
-        <v>6.0702890000000002E-2</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0.99819930000000001</v>
-      </c>
-      <c r="H78" s="5">
-        <v>3.9456950000000002E-5</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0.35268169999999999</v>
-      </c>
-      <c r="J78" s="3">
-        <v>20.03593</v>
-      </c>
-      <c r="K78" s="3">
-        <v>10.410740000000001</v>
-      </c>
-      <c r="L78" s="3">
-        <v>24.640830000000001</v>
-      </c>
-      <c r="M78" s="3">
-        <v>7.9231059999999998</v>
-      </c>
-      <c r="N78" s="3">
-        <v>0.8700736</v>
-      </c>
-      <c r="O78" s="3">
-        <v>992.35820000000001</v>
-      </c>
-      <c r="P78" s="3"/>
-    </row>
-    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>45119.419317129628</v>
-      </c>
-      <c r="B79" s="3">
-        <v>29320.2</v>
-      </c>
-      <c r="C79" s="3">
-        <v>5.0200329999999997</v>
-      </c>
-      <c r="D79" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E79" s="3">
-        <v>6.0705990000000001E-2</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.99819979999999997</v>
-      </c>
-      <c r="H79" s="5">
-        <v>3.9458449999999998E-5</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0.3467711</v>
-      </c>
-      <c r="J79" s="3">
-        <v>20.03275</v>
-      </c>
-      <c r="K79" s="3">
-        <v>10.437480000000001</v>
-      </c>
-      <c r="L79" s="3">
-        <v>24.70242</v>
-      </c>
-      <c r="M79" s="3">
-        <v>7.9710760000000001</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0.87254200000000004</v>
-      </c>
-      <c r="O79" s="3">
-        <v>992.35929999999996</v>
-      </c>
-      <c r="P79" s="3"/>
-    </row>
-    <row r="80" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>45119.419328703705</v>
-      </c>
-      <c r="B80" s="3">
-        <v>24175.72</v>
-      </c>
-      <c r="C80" s="3">
-        <v>5.1111360000000001</v>
-      </c>
-      <c r="D80" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E80" s="3">
-        <v>6.0763329999999997E-2</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0.99820900000000001</v>
-      </c>
-      <c r="H80" s="5">
-        <v>3.949616E-5</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0.46949689999999999</v>
-      </c>
-      <c r="J80" s="3">
-        <v>20.014040000000001</v>
-      </c>
-      <c r="K80" s="3">
-        <v>11.70088</v>
-      </c>
-      <c r="L80" s="3">
-        <v>27.61675</v>
-      </c>
-      <c r="M80" s="3">
-        <v>8.2876910000000006</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0.90455249999999998</v>
-      </c>
-      <c r="O80" s="3">
-        <v>992.30619999999999</v>
-      </c>
-      <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>45119.419340277775</v>
-      </c>
-      <c r="B81" s="3">
-        <v>23427.31</v>
-      </c>
-      <c r="C81" s="3">
-        <v>5.1125249999999998</v>
-      </c>
-      <c r="D81" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E81" s="3">
-        <v>6.076703E-2</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0.99820960000000003</v>
-      </c>
-      <c r="H81" s="5">
-        <v>3.949857E-5</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0.47413430000000001</v>
-      </c>
-      <c r="J81" s="3">
-        <v>20.011959999999998</v>
-      </c>
-      <c r="K81" s="3">
-        <v>11.773680000000001</v>
-      </c>
-      <c r="L81" s="3">
-        <v>27.784649999999999</v>
-      </c>
-      <c r="M81" s="3">
-        <v>8.3217560000000006</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0.90725109999999998</v>
-      </c>
-      <c r="O81" s="3">
-        <v>992.3039</v>
-      </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>45119.419351851851</v>
-      </c>
-      <c r="B82" s="3">
-        <v>22678.89</v>
-      </c>
-      <c r="C82" s="3">
-        <v>5.1139150000000004</v>
-      </c>
-      <c r="D82" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E82" s="3">
-        <v>6.0770739999999997E-2</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0.99821020000000005</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.9500969999999998E-5</v>
-      </c>
-      <c r="I82" s="3">
-        <v>0.47877170000000002</v>
-      </c>
-      <c r="J82" s="3">
-        <v>20.009869999999999</v>
-      </c>
-      <c r="K82" s="3">
-        <v>11.846489999999999</v>
-      </c>
-      <c r="L82" s="3">
-        <v>27.952559999999998</v>
-      </c>
-      <c r="M82" s="3">
-        <v>8.3558230000000009</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0.90994960000000003</v>
-      </c>
-      <c r="O82" s="3">
-        <v>992.30150000000003</v>
-      </c>
-      <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>45119.419363425928</v>
-      </c>
-      <c r="B83" s="3">
-        <v>21188.959999999999</v>
-      </c>
-      <c r="C83" s="3">
-        <v>5.0436759999999996</v>
-      </c>
-      <c r="D83" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E83" s="3">
-        <v>6.0798249999999998E-2</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0.99821470000000001</v>
-      </c>
-      <c r="H83" s="5">
-        <v>3.9518860000000003E-5</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0.47373510000000002</v>
-      </c>
-      <c r="J83" s="3">
-        <v>19.96246</v>
-      </c>
-      <c r="K83" s="3">
-        <v>12.422689999999999</v>
-      </c>
-      <c r="L83" s="3">
-        <v>29.282879999999999</v>
-      </c>
-      <c r="M83" s="3">
-        <v>8.7487089999999998</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0.94885030000000004</v>
-      </c>
-      <c r="O83" s="3">
-        <v>992.3451</v>
-      </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>45119.419374999998</v>
-      </c>
-      <c r="B84" s="3">
-        <v>20983.200000000001</v>
-      </c>
-      <c r="C84" s="3">
-        <v>5.0419479999999997</v>
-      </c>
-      <c r="D84" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E84" s="3">
-        <v>6.0800979999999998E-2</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0.99821510000000002</v>
-      </c>
-      <c r="H84" s="5">
-        <v>3.9520639999999998E-5</v>
-      </c>
-      <c r="I84" s="3">
-        <v>0.47606290000000001</v>
-      </c>
-      <c r="J84" s="3">
-        <v>19.959530000000001</v>
-      </c>
-      <c r="K84" s="3">
-        <v>12.4808</v>
-      </c>
-      <c r="L84" s="3">
-        <v>29.416969999999999</v>
-      </c>
-      <c r="M84" s="3">
-        <v>8.7768650000000008</v>
-      </c>
-      <c r="N84" s="3">
-        <v>0.9516133</v>
-      </c>
-      <c r="O84" s="3">
-        <v>992.34619999999995</v>
-      </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>45119.419386574074</v>
-      </c>
-      <c r="B85" s="3">
-        <v>20777.439999999999</v>
-      </c>
-      <c r="C85" s="3">
-        <v>5.0402189999999996</v>
-      </c>
-      <c r="D85" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E85" s="3">
-        <v>6.080373E-2</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0.99821559999999998</v>
-      </c>
-      <c r="H85" s="5">
-        <v>3.9522420000000001E-5</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0.4783907</v>
-      </c>
-      <c r="J85" s="3">
-        <v>19.956610000000001</v>
-      </c>
-      <c r="K85" s="3">
-        <v>12.5389</v>
-      </c>
-      <c r="L85" s="3">
-        <v>29.55106</v>
-      </c>
-      <c r="M85" s="3">
-        <v>8.805021</v>
-      </c>
-      <c r="N85" s="3">
-        <v>0.95437629999999996</v>
-      </c>
-      <c r="O85" s="3">
-        <v>992.34739999999999</v>
-      </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>45119.419398148151</v>
-      </c>
-      <c r="B86" s="3">
-        <v>15990.33</v>
-      </c>
-      <c r="C86" s="3">
-        <v>4.9140110000000004</v>
-      </c>
-      <c r="D86" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E86" s="3">
-        <v>6.0828559999999997E-2</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0.99822420000000001</v>
-      </c>
-      <c r="H86" s="5">
-        <v>3.955757E-5</v>
-      </c>
-      <c r="I86" s="3">
-        <v>0.43890109999999999</v>
-      </c>
-      <c r="J86" s="3">
-        <v>19.936710000000001</v>
-      </c>
-      <c r="K86" s="3">
-        <v>13.422790000000001</v>
-      </c>
-      <c r="L86" s="3">
-        <v>31.58859</v>
-      </c>
-      <c r="M86" s="3">
-        <v>9.4371580000000002</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0.97750539999999997</v>
-      </c>
-      <c r="O86" s="3">
-        <v>992.36599999999999</v>
-      </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>45119.419409722221</v>
-      </c>
-      <c r="B87" s="3">
-        <v>15697.04</v>
-      </c>
-      <c r="C87" s="3">
-        <v>4.9059679999999997</v>
-      </c>
-      <c r="D87" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E87" s="3">
-        <v>6.0830509999999997E-2</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0.99822469999999996</v>
-      </c>
-      <c r="H87" s="5">
-        <v>3.9559820000000002E-5</v>
-      </c>
-      <c r="I87" s="3">
-        <v>0.43683040000000001</v>
-      </c>
-      <c r="J87" s="3">
-        <v>19.9346</v>
-      </c>
-      <c r="K87" s="3">
-        <v>13.482390000000001</v>
-      </c>
-      <c r="L87" s="3">
-        <v>31.726030000000002</v>
-      </c>
-      <c r="M87" s="3">
-        <v>9.4790600000000005</v>
-      </c>
-      <c r="N87" s="3">
-        <v>0.97960590000000003</v>
-      </c>
-      <c r="O87" s="3">
-        <v>992.36789999999996</v>
-      </c>
-      <c r="P87" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
